--- a/biology/Histoire de la zoologie et de la botanique/Georges_Kuhnholtz-Lordat/Georges_Kuhnholtz-Lordat.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Georges_Kuhnholtz-Lordat/Georges_Kuhnholtz-Lordat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges Kuhnholtz-Lordat (1888-1965) est un ingénieur agronome (INA Paris), docteur es sciences et membre correspondant de l'Institut. 
 Professeur de botanique à l'École nationale supérieure agronomique de Montpellier (ENSAM), il y introduit le cours de génétique.
@@ -490,7 +502,7 @@
 La Genèse des appellations d'origine contrôlée (AOC).
 Il est rappelé de sa retraite par le professeur Roger Heim, directeur du Muséum national d'histoire naturelle à Paris, pour fonder la chaire d'écologie et de protection de la nature et il publie son dernier livre :  L'Écran vert.
 Membre de l'Académie des sciences de Montpellier, il y fit de nombreuses communications. Il est l'un des fondateurs de la Station internationale de géobotanique méditerranéenne et alpine de Montpellier.
-D’après le géographe-franco-allemand Christophe Neff[1] spécialiste de feu de forêts[2], - Kuhnholtz-Lordat peut être considérer comme un des pères fondateurs de la « fire-ecology »  (écologie du feu) et de la « global change ecology » (écologie des changements globaux)[3].
+D’après le géographe-franco-allemand Christophe Neff spécialiste de feu de forêts, - Kuhnholtz-Lordat peut être considérer comme un des pères fondateurs de la « fire-ecology »  (écologie du feu) et de la « global change ecology » (écologie des changements globaux).
 </t>
         </is>
       </c>
